--- a/biology/Botanique/Liste_des_villes_et_villages_fleuris_du_Gers/Liste_des_villes_et_villages_fleuris_du_Gers.xlsx
+++ b/biology/Botanique/Liste_des_villes_et_villages_fleuris_du_Gers/Liste_des_villes_et_villages_fleuris_du_Gers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des villes et villages fleuris du Gers dresse le nom des communes récompensées par le concours des villes et villages fleuris dans le département du Gers, en Région Occitanie.
-En 2022, 17 communes du département figurent au palmarès du concours[1], soit trois communes de plus par rapport aux résultats de 2021.
+En 2022, 17 communes du département figurent au palmarès du concours, soit trois communes de plus par rapport aux résultats de 2021.
 </t>
         </is>
       </c>
@@ -512,34 +524,265 @@
           <t>Communes labellisées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'indication de hausse, de baisse ou de stagnation, pour la catégorie 4 fleurs, correspond au précédent résultat (année 2022 par rapport à 2021). Les autres catégories (3, 2 et 1 fleur) n'ont pas d'indications car leurs différents résultats ne reflètent pas obligatoirement une signification positive ou négative.
-Répartition selon le nombre de fleurs
-Les 17 communes sont réparties comme suit :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_du_Gers</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_du_Gers</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Répartition selon le nombre de fleurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les 17 communes sont réparties comme suit :
 4 fleurs : 4 communes. 
 3 fleurs : 3 communes.
 2 fleurs : 6 communes.
-1 fleur : 4 communes.
-Liste des communes
-La liste suivante répertorie les communes du Gers labellisées « Ville ou village fleuri »[a] (la ou les communes promues en 2022 sont identifiées en caractères gras) :
-4 fleurs
+1 fleur : 4 communes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_du_Gers</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_du_Gers</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste suivante répertorie les communes du Gers labellisées « Ville ou village fleuri »[a] (la ou les communes promues en 2022 sont identifiées en caractères gras) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_du_Gers</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_du_Gers</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4 fleurs</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Auch
 Blaziert
 Lectoure
 Ordan-Larroque
-3 fleurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_du_Gers</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_du_Gers</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3 fleurs</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Castin
 Marciac
 Roques
-2 fleurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_du_Gers</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_du_Gers</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2 fleurs</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Castelnau-Barbarens
 Castéra-Lectourois
 Condom
 Eauze
 Fleurance
 Fourcès
-1 fleur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_du_Gers</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_du_Gers</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1 fleur</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 L'Isle-Jourdain
 Lasséran
 Montréal-du-Gers
@@ -548,40 +791,113 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_villes_et_villages_fleuris_du_Gers</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_du_Gers</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_du_Gers</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_du_Gers</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fleurs d'Or
-Auch (2020)[2]
-Prix nationaux
-Prix de la mise en valeur du patrimoine : Lectoure (2020)[3].
-Prix du jardinier : Ordan-Larroque (2009)[4].
-Prix de la mise en valeur de l’espace communal rural : Ordan-Larroque (2009)[4]
-Prix spéciaux
-Prix national de l'arbre : Auch (2000)[5],[6].</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fleurs d'Or</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Auch (2020)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_du_Gers</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_du_Gers</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Prix nationaux</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Prix de la mise en valeur du patrimoine : Lectoure (2020).
+Prix du jardinier : Ordan-Larroque (2009).
+Prix de la mise en valeur de l’espace communal rural : Ordan-Larroque (2009)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_du_Gers</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_du_Gers</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Prix spéciaux</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Prix national de l'arbre : Auch (2000),.</t>
         </is>
       </c>
     </row>
